--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl1-Xcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H2">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I2">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J2">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3924583333333334</v>
+        <v>0.07488766666666667</v>
       </c>
       <c r="N2">
-        <v>1.177375</v>
+        <v>0.224663</v>
       </c>
       <c r="O2">
-        <v>0.1759822608984194</v>
+        <v>0.04970421453633064</v>
       </c>
       <c r="P2">
-        <v>0.1759822608984194</v>
+        <v>0.04970421453633066</v>
       </c>
       <c r="Q2">
-        <v>4.896453283138889</v>
+        <v>2.221397199818</v>
       </c>
       <c r="R2">
-        <v>44.06807954825</v>
+        <v>19.992574798362</v>
       </c>
       <c r="S2">
-        <v>0.002770036953017381</v>
+        <v>0.001631946704319482</v>
       </c>
       <c r="T2">
-        <v>0.002770036953017381</v>
+        <v>0.001631946704319482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H3">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I3">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J3">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2725706666666667</v>
+        <v>0.6177256666666667</v>
       </c>
       <c r="N3">
-        <v>0.817712</v>
+        <v>1.853177</v>
       </c>
       <c r="O3">
-        <v>0.1222234262862455</v>
+        <v>0.4099950022112836</v>
       </c>
       <c r="P3">
-        <v>0.1222234262862455</v>
+        <v>0.4099950022112838</v>
       </c>
       <c r="Q3">
-        <v>3.400691034769778</v>
+        <v>18.323632278422</v>
       </c>
       <c r="R3">
-        <v>30.606219312928</v>
+        <v>164.912690505798</v>
       </c>
       <c r="S3">
-        <v>0.001923849628984605</v>
+        <v>0.01346143378157803</v>
       </c>
       <c r="T3">
-        <v>0.001923849628984604</v>
+        <v>0.01346143378157803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.47636466666667</v>
+        <v>29.663058</v>
       </c>
       <c r="H4">
-        <v>37.429094</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I4">
-        <v>0.0157404328076925</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J4">
-        <v>0.01574043280769249</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.565072666666667</v>
+        <v>0.689073</v>
       </c>
       <c r="N4">
-        <v>4.695218000000001</v>
+        <v>2.067219</v>
       </c>
       <c r="O4">
-        <v>0.7017943128153349</v>
+        <v>0.4573494374666897</v>
       </c>
       <c r="P4">
-        <v>0.7017943128153351</v>
+        <v>0.4573494374666898</v>
       </c>
       <c r="Q4">
-        <v>19.52641731916578</v>
+        <v>20.440012365234</v>
       </c>
       <c r="R4">
-        <v>175.737755872492</v>
+        <v>183.960111287106</v>
       </c>
       <c r="S4">
-        <v>0.01104654622569051</v>
+        <v>0.01501622979376495</v>
       </c>
       <c r="T4">
-        <v>0.01104654622569051</v>
+        <v>0.01501622979376495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>536.4207763333334</v>
+        <v>29.663058</v>
       </c>
       <c r="H5">
-        <v>1609.262329</v>
+        <v>88.98917399999999</v>
       </c>
       <c r="I5">
-        <v>0.676759249357605</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="J5">
-        <v>0.6767592493576049</v>
+        <v>0.03283316554829836</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3924583333333334</v>
+        <v>0.12498</v>
       </c>
       <c r="N5">
-        <v>1.177375</v>
+        <v>0.37494</v>
       </c>
       <c r="O5">
-        <v>0.1759822608984194</v>
+        <v>0.08295134578569595</v>
       </c>
       <c r="P5">
-        <v>0.1759822608984194</v>
+        <v>0.08295134578569598</v>
       </c>
       <c r="Q5">
-        <v>210.5228038451528</v>
+        <v>3.707288988839999</v>
       </c>
       <c r="R5">
-        <v>1894.705234606375</v>
+        <v>33.36560089955999</v>
       </c>
       <c r="S5">
-        <v>0.1190976227858685</v>
+        <v>0.002723555268635897</v>
       </c>
       <c r="T5">
-        <v>0.1190976227858685</v>
+        <v>0.002723555268635897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>1609.262329</v>
       </c>
       <c r="I6">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J6">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2725706666666667</v>
+        <v>0.07488766666666667</v>
       </c>
       <c r="N6">
-        <v>0.817712</v>
+        <v>0.224663</v>
       </c>
       <c r="O6">
-        <v>0.1222234262862455</v>
+        <v>0.04970421453633064</v>
       </c>
       <c r="P6">
-        <v>0.1222234262862455</v>
+        <v>0.04970421453633066</v>
       </c>
       <c r="Q6">
-        <v>146.2125686190276</v>
+        <v>40.17130029112523</v>
       </c>
       <c r="R6">
-        <v>1315.913117571248</v>
+        <v>361.541702620127</v>
       </c>
       <c r="S6">
-        <v>0.08271583422739409</v>
+        <v>0.02951179605506895</v>
       </c>
       <c r="T6">
-        <v>0.08271583422739408</v>
+        <v>0.02951179605506895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1609.262329</v>
       </c>
       <c r="I7">
-        <v>0.676759249357605</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J7">
-        <v>0.6767592493576049</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.565072666666667</v>
+        <v>0.6177256666666667</v>
       </c>
       <c r="N7">
-        <v>4.695218000000001</v>
+        <v>1.853177</v>
       </c>
       <c r="O7">
-        <v>0.7017943128153349</v>
+        <v>0.4099950022112836</v>
       </c>
       <c r="P7">
-        <v>0.7017943128153351</v>
+        <v>0.4099950022112838</v>
       </c>
       <c r="Q7">
-        <v>839.5374948714137</v>
+        <v>331.3608816743593</v>
       </c>
       <c r="R7">
-        <v>7555.837453842723</v>
+        <v>2982.247935069233</v>
       </c>
       <c r="S7">
-        <v>0.4749457923443423</v>
+        <v>0.2434338617304341</v>
       </c>
       <c r="T7">
-        <v>0.4749457923443424</v>
+        <v>0.2434338617304341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.33865233333333</v>
+        <v>536.4207763333334</v>
       </c>
       <c r="H8">
-        <v>79.015957</v>
+        <v>1609.262329</v>
       </c>
       <c r="I8">
-        <v>0.03322937397026013</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J8">
-        <v>0.03322937397026012</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3924583333333334</v>
+        <v>0.689073</v>
       </c>
       <c r="N8">
-        <v>1.177375</v>
+        <v>2.067219</v>
       </c>
       <c r="O8">
-        <v>0.1759822608984194</v>
+        <v>0.4573494374666897</v>
       </c>
       <c r="P8">
-        <v>0.1759822608984194</v>
+        <v>0.4573494374666898</v>
       </c>
       <c r="Q8">
-        <v>10.33682359698611</v>
+        <v>369.6330736103391</v>
       </c>
       <c r="R8">
-        <v>93.03141237287501</v>
+        <v>3326.697662493052</v>
       </c>
       <c r="S8">
-        <v>0.005847780359525464</v>
+        <v>0.2715504801821554</v>
       </c>
       <c r="T8">
-        <v>0.005847780359525464</v>
+        <v>0.2715504801821554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.33865233333333</v>
+        <v>536.4207763333334</v>
       </c>
       <c r="H9">
-        <v>79.015957</v>
+        <v>1609.262329</v>
       </c>
       <c r="I9">
-        <v>0.03322937397026013</v>
+        <v>0.593748363803188</v>
       </c>
       <c r="J9">
-        <v>0.03322937397026012</v>
+        <v>0.5937483638031879</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2725706666666667</v>
+        <v>0.12498</v>
       </c>
       <c r="N9">
-        <v>0.817712</v>
+        <v>0.37494</v>
       </c>
       <c r="O9">
-        <v>0.1222234262862455</v>
+        <v>0.08295134578569595</v>
       </c>
       <c r="P9">
-        <v>0.1222234262862455</v>
+        <v>0.08295134578569598</v>
       </c>
       <c r="Q9">
-        <v>7.179144025598222</v>
+        <v>67.04186862614</v>
       </c>
       <c r="R9">
-        <v>64.612296230384</v>
+        <v>603.3768176352601</v>
       </c>
       <c r="S9">
-        <v>0.004061407939992175</v>
+        <v>0.04925222583552944</v>
       </c>
       <c r="T9">
-        <v>0.004061407939992174</v>
+        <v>0.04925222583552945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.33865233333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H10">
-        <v>79.015957</v>
+        <v>164.450169</v>
       </c>
       <c r="I10">
-        <v>0.03322937397026013</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J10">
-        <v>0.03322937397026012</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.565072666666667</v>
+        <v>0.07488766666666667</v>
       </c>
       <c r="N10">
-        <v>4.695218000000001</v>
+        <v>0.224663</v>
       </c>
       <c r="O10">
-        <v>0.7017943128153349</v>
+        <v>0.04970421453633064</v>
       </c>
       <c r="P10">
-        <v>0.7017943128153351</v>
+        <v>0.04970421453633066</v>
       </c>
       <c r="Q10">
-        <v>41.22190484373623</v>
+        <v>4.105096479783001</v>
       </c>
       <c r="R10">
-        <v>370.997143593626</v>
+        <v>36.945868318047</v>
       </c>
       <c r="S10">
-        <v>0.02332018567074248</v>
+        <v>0.003015804049651387</v>
       </c>
       <c r="T10">
-        <v>0.02332018567074249</v>
+        <v>0.003015804049651387</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.54239833333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H11">
-        <v>127.627195</v>
+        <v>164.450169</v>
       </c>
       <c r="I11">
-        <v>0.05367234609877994</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J11">
-        <v>0.05367234609877993</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3924583333333334</v>
+        <v>0.6177256666666667</v>
       </c>
       <c r="N11">
-        <v>1.177375</v>
+        <v>1.853177</v>
       </c>
       <c r="O11">
-        <v>0.1759822608984194</v>
+        <v>0.4099950022112836</v>
       </c>
       <c r="P11">
-        <v>0.1759822608984194</v>
+        <v>0.4099950022112838</v>
       </c>
       <c r="Q11">
-        <v>16.69611874590278</v>
+        <v>33.86169675965701</v>
       </c>
       <c r="R11">
-        <v>150.265068713125</v>
+        <v>304.755270836913</v>
       </c>
       <c r="S11">
-        <v>0.009445380814185753</v>
+        <v>0.0248764536275257</v>
       </c>
       <c r="T11">
-        <v>0.009445380814185753</v>
+        <v>0.02487645362752571</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.54239833333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H12">
-        <v>127.627195</v>
+        <v>164.450169</v>
       </c>
       <c r="I12">
-        <v>0.05367234609877994</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J12">
-        <v>0.05367234609877993</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,33 +1181,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2725706666666667</v>
+        <v>0.689073</v>
       </c>
       <c r="N12">
-        <v>0.817712</v>
+        <v>2.067219</v>
       </c>
       <c r="O12">
-        <v>0.1222234262862455</v>
+        <v>0.4573494374666897</v>
       </c>
       <c r="P12">
-        <v>0.1222234262862455</v>
+        <v>0.4573494374666898</v>
       </c>
       <c r="Q12">
-        <v>11.59580987531556</v>
+        <v>37.77272376777901</v>
       </c>
       <c r="R12">
-        <v>104.36228887784</v>
+        <v>339.954513910011</v>
       </c>
       <c r="S12">
-        <v>0.006560018037014087</v>
+        <v>0.0277496847799428</v>
       </c>
       <c r="T12">
-        <v>0.006560018037014087</v>
+        <v>0.0277496847799428</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.54239833333333</v>
+        <v>54.816723</v>
       </c>
       <c r="H13">
-        <v>127.627195</v>
+        <v>164.450169</v>
       </c>
       <c r="I13">
-        <v>0.05367234609877994</v>
+        <v>0.06067501675229219</v>
       </c>
       <c r="J13">
-        <v>0.05367234609877993</v>
+        <v>0.06067501675229218</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.565072666666667</v>
+        <v>0.12498</v>
       </c>
       <c r="N13">
-        <v>4.695218000000001</v>
+        <v>0.37494</v>
       </c>
       <c r="O13">
-        <v>0.7017943128153349</v>
+        <v>0.08295134578569595</v>
       </c>
       <c r="P13">
-        <v>0.7017943128153351</v>
+        <v>0.08295134578569598</v>
       </c>
       <c r="Q13">
-        <v>66.58194480594555</v>
+        <v>6.85099404054</v>
       </c>
       <c r="R13">
-        <v>599.2375032535101</v>
+        <v>61.65894636486001</v>
       </c>
       <c r="S13">
-        <v>0.03766694724758009</v>
+        <v>0.005033074295172284</v>
       </c>
       <c r="T13">
-        <v>0.03766694724758009</v>
+        <v>0.005033074295172284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>159.9495013333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H14">
-        <v>479.8485039999999</v>
+        <v>100.118514</v>
       </c>
       <c r="I14">
-        <v>0.2017955106015594</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J14">
-        <v>0.2017955106015594</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3924583333333334</v>
+        <v>0.07488766666666667</v>
       </c>
       <c r="N14">
-        <v>1.177375</v>
+        <v>0.224663</v>
       </c>
       <c r="O14">
-        <v>0.1759822608984194</v>
+        <v>0.04970421453633064</v>
       </c>
       <c r="P14">
-        <v>0.1759822608984194</v>
+        <v>0.04970421453633066</v>
       </c>
       <c r="Q14">
-        <v>62.77351471077777</v>
+        <v>2.499213967864667</v>
       </c>
       <c r="R14">
-        <v>564.9616323969999</v>
+        <v>22.492925710782</v>
       </c>
       <c r="S14">
-        <v>0.03551243019481339</v>
+        <v>0.001836044449223272</v>
       </c>
       <c r="T14">
-        <v>0.03551243019481339</v>
+        <v>0.001836044449223273</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,61 +1349,61 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>159.9495013333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H15">
-        <v>479.8485039999999</v>
+        <v>100.118514</v>
       </c>
       <c r="I15">
-        <v>0.2017955106015594</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J15">
-        <v>0.2017955106015594</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2725706666666667</v>
+        <v>0.6177256666666667</v>
       </c>
       <c r="N15">
-        <v>0.817712</v>
+        <v>1.853177</v>
       </c>
       <c r="O15">
-        <v>0.1222234262862455</v>
+        <v>0.4099950022112836</v>
       </c>
       <c r="P15">
-        <v>0.1222234262862455</v>
+        <v>0.4099950022112838</v>
       </c>
       <c r="Q15">
-        <v>43.59754221142755</v>
+        <v>20.61525860210867</v>
       </c>
       <c r="R15">
-        <v>392.377879902848</v>
+        <v>185.537327418978</v>
       </c>
       <c r="S15">
-        <v>0.02466413871490497</v>
+        <v>0.01514497422485338</v>
       </c>
       <c r="T15">
-        <v>0.02466413871490497</v>
+        <v>0.01514497422485339</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>159.9495013333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H16">
-        <v>479.8485039999999</v>
+        <v>100.118514</v>
       </c>
       <c r="I16">
-        <v>0.2017955106015594</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J16">
-        <v>0.2017955106015594</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.565072666666667</v>
+        <v>0.689073</v>
       </c>
       <c r="N16">
-        <v>4.695218000000001</v>
+        <v>2.067219</v>
       </c>
       <c r="O16">
-        <v>0.7017943128153349</v>
+        <v>0.4573494374666897</v>
       </c>
       <c r="P16">
-        <v>0.7017943128153351</v>
+        <v>0.4573494374666898</v>
       </c>
       <c r="Q16">
-        <v>250.3325925837635</v>
+        <v>22.996321599174</v>
       </c>
       <c r="R16">
-        <v>2252.993333253872</v>
+        <v>206.966894392566</v>
       </c>
       <c r="S16">
-        <v>0.141618941691841</v>
+        <v>0.0168942192095667</v>
       </c>
       <c r="T16">
-        <v>0.141618941691841</v>
+        <v>0.0168942192095667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.90392133333333</v>
+        <v>33.372838</v>
       </c>
       <c r="H17">
-        <v>44.711764</v>
+        <v>100.118514</v>
       </c>
       <c r="I17">
-        <v>0.01880308716410299</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="J17">
-        <v>0.01880308716410299</v>
+        <v>0.03693941180543633</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3924583333333334</v>
+        <v>0.12498</v>
       </c>
       <c r="N17">
-        <v>1.177375</v>
+        <v>0.37494</v>
       </c>
       <c r="O17">
-        <v>0.1759822608984194</v>
+        <v>0.08295134578569595</v>
       </c>
       <c r="P17">
-        <v>0.1759822608984194</v>
+        <v>0.08295134578569598</v>
       </c>
       <c r="Q17">
-        <v>5.849168126611112</v>
+        <v>4.17093729324</v>
       </c>
       <c r="R17">
-        <v>52.6425131395</v>
+        <v>37.53843563916</v>
       </c>
       <c r="S17">
-        <v>0.003309009791008894</v>
+        <v>0.003064173921792968</v>
       </c>
       <c r="T17">
-        <v>0.003309009791008893</v>
+        <v>0.003064173921792969</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.90392133333333</v>
+        <v>205.087789</v>
       </c>
       <c r="H18">
-        <v>44.711764</v>
+        <v>615.263367</v>
       </c>
       <c r="I18">
-        <v>0.01880308716410299</v>
+        <v>0.2270056353654261</v>
       </c>
       <c r="J18">
-        <v>0.01880308716410299</v>
+        <v>0.227005635365426</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,90 +1553,462 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.2725706666666667</v>
+        <v>0.07488766666666667</v>
       </c>
       <c r="N18">
-        <v>0.817712</v>
+        <v>0.224663</v>
       </c>
       <c r="O18">
-        <v>0.1222234262862455</v>
+        <v>0.04970421453633064</v>
       </c>
       <c r="P18">
-        <v>0.1222234262862455</v>
+        <v>0.04970421453633066</v>
       </c>
       <c r="Q18">
-        <v>4.062371773774223</v>
+        <v>15.35854598003567</v>
       </c>
       <c r="R18">
-        <v>36.561345963968</v>
+        <v>138.226913820321</v>
       </c>
       <c r="S18">
-        <v>0.002298177737955592</v>
+        <v>0.01128313680115919</v>
       </c>
       <c r="T18">
-        <v>0.002298177737955591</v>
+        <v>0.01128313680115919</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>205.087789</v>
+      </c>
+      <c r="H19">
+        <v>615.263367</v>
+      </c>
+      <c r="I19">
+        <v>0.2270056353654261</v>
+      </c>
+      <c r="J19">
+        <v>0.227005635365426</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6177256666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.853177</v>
+      </c>
+      <c r="O19">
+        <v>0.4099950022112836</v>
+      </c>
+      <c r="P19">
+        <v>0.4099950022112838</v>
+      </c>
+      <c r="Q19">
+        <v>126.6879911852177</v>
+      </c>
+      <c r="R19">
+        <v>1140.191920666959</v>
+      </c>
+      <c r="S19">
+        <v>0.0930711759736217</v>
+      </c>
+      <c r="T19">
+        <v>0.09307117597362172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>205.087789</v>
+      </c>
+      <c r="H20">
+        <v>615.263367</v>
+      </c>
+      <c r="I20">
+        <v>0.2270056353654261</v>
+      </c>
+      <c r="J20">
+        <v>0.227005635365426</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.689073</v>
+      </c>
+      <c r="N20">
+        <v>2.067219</v>
+      </c>
+      <c r="O20">
+        <v>0.4573494374666897</v>
+      </c>
+      <c r="P20">
+        <v>0.4573494374666898</v>
+      </c>
+      <c r="Q20">
+        <v>141.320458029597</v>
+      </c>
+      <c r="R20">
+        <v>1271.884122266373</v>
+      </c>
+      <c r="S20">
+        <v>0.1038208996361461</v>
+      </c>
+      <c r="T20">
+        <v>0.1038208996361461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>205.087789</v>
+      </c>
+      <c r="H21">
+        <v>615.263367</v>
+      </c>
+      <c r="I21">
+        <v>0.2270056353654261</v>
+      </c>
+      <c r="J21">
+        <v>0.227005635365426</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.12498</v>
+      </c>
+      <c r="N21">
+        <v>0.37494</v>
+      </c>
+      <c r="O21">
+        <v>0.08295134578569595</v>
+      </c>
+      <c r="P21">
+        <v>0.08295134578569598</v>
+      </c>
+      <c r="Q21">
+        <v>25.63187186922</v>
+      </c>
+      <c r="R21">
+        <v>230.68684682298</v>
+      </c>
+      <c r="S21">
+        <v>0.01883042295449907</v>
+      </c>
+      <c r="T21">
+        <v>0.01883042295449907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>14.90392133333333</v>
-      </c>
-      <c r="H19">
-        <v>44.711764</v>
-      </c>
-      <c r="I19">
-        <v>0.01880308716410299</v>
-      </c>
-      <c r="J19">
-        <v>0.01880308716410299</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.565072666666667</v>
-      </c>
-      <c r="N19">
-        <v>4.695218000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.7017943128153349</v>
-      </c>
-      <c r="P19">
-        <v>0.7017943128153351</v>
-      </c>
-      <c r="Q19">
-        <v>23.32571990495023</v>
-      </c>
-      <c r="R19">
-        <v>209.931479144552</v>
-      </c>
-      <c r="S19">
-        <v>0.0131958996351385</v>
-      </c>
-      <c r="T19">
-        <v>0.0131958996351385</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>44.08682333333334</v>
+      </c>
+      <c r="H22">
+        <v>132.26047</v>
+      </c>
+      <c r="I22">
+        <v>0.04879840672535908</v>
+      </c>
+      <c r="J22">
+        <v>0.04879840672535907</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.07488766666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.224663</v>
+      </c>
+      <c r="O22">
+        <v>0.04970421453633064</v>
+      </c>
+      <c r="P22">
+        <v>0.04970421453633066</v>
+      </c>
+      <c r="Q22">
+        <v>3.301559330178889</v>
+      </c>
+      <c r="R22">
+        <v>29.71403397161</v>
+      </c>
+      <c r="S22">
+        <v>0.002425486476908368</v>
+      </c>
+      <c r="T22">
+        <v>0.002425486476908368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>44.08682333333334</v>
+      </c>
+      <c r="H23">
+        <v>132.26047</v>
+      </c>
+      <c r="I23">
+        <v>0.04879840672535908</v>
+      </c>
+      <c r="J23">
+        <v>0.04879840672535907</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6177256666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.853177</v>
+      </c>
+      <c r="O23">
+        <v>0.4099950022112836</v>
+      </c>
+      <c r="P23">
+        <v>0.4099950022112838</v>
+      </c>
+      <c r="Q23">
+        <v>27.23356233479889</v>
+      </c>
+      <c r="R23">
+        <v>245.10206101319</v>
+      </c>
+      <c r="S23">
+        <v>0.02000710287327071</v>
+      </c>
+      <c r="T23">
+        <v>0.02000710287327072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>44.08682333333334</v>
+      </c>
+      <c r="H24">
+        <v>132.26047</v>
+      </c>
+      <c r="I24">
+        <v>0.04879840672535908</v>
+      </c>
+      <c r="J24">
+        <v>0.04879840672535907</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.689073</v>
+      </c>
+      <c r="N24">
+        <v>2.067219</v>
+      </c>
+      <c r="O24">
+        <v>0.4573494374666897</v>
+      </c>
+      <c r="P24">
+        <v>0.4573494374666898</v>
+      </c>
+      <c r="Q24">
+        <v>30.37903961477</v>
+      </c>
+      <c r="R24">
+        <v>273.41135653293</v>
+      </c>
+      <c r="S24">
+        <v>0.0223179238651137</v>
+      </c>
+      <c r="T24">
+        <v>0.0223179238651137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>44.08682333333334</v>
+      </c>
+      <c r="H25">
+        <v>132.26047</v>
+      </c>
+      <c r="I25">
+        <v>0.04879840672535908</v>
+      </c>
+      <c r="J25">
+        <v>0.04879840672535907</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.12498</v>
+      </c>
+      <c r="N25">
+        <v>0.37494</v>
+      </c>
+      <c r="O25">
+        <v>0.08295134578569595</v>
+      </c>
+      <c r="P25">
+        <v>0.08295134578569598</v>
+      </c>
+      <c r="Q25">
+        <v>5.5099711802</v>
+      </c>
+      <c r="R25">
+        <v>49.5897406218</v>
+      </c>
+      <c r="S25">
+        <v>0.004047893510066292</v>
+      </c>
+      <c r="T25">
+        <v>0.004047893510066292</v>
       </c>
     </row>
   </sheetData>
